--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\trabajoOracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09AE212-DE54-4404-A80D-A3018A471F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D16129-F6D7-44AF-B003-A9AA1D372B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{1EBFA73A-D4AE-4893-99D6-AEDC93B5013C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>personas</t>
   </si>
@@ -50,9 +50,6 @@
     <t>pais</t>
   </si>
   <si>
-    <t>medios_pago</t>
-  </si>
-  <si>
     <t>viajes</t>
   </si>
   <si>
@@ -71,21 +68,12 @@
     <t>usuarios_veluculos</t>
   </si>
   <si>
-    <t>usuario_medios_pagos</t>
-  </si>
-  <si>
     <t>detalles_viajes</t>
   </si>
   <si>
     <t>Cuentas empresariales ???</t>
   </si>
   <si>
-    <t>departamento</t>
-  </si>
-  <si>
-    <t>departamento_id</t>
-  </si>
-  <si>
     <t>pagos_conductos</t>
   </si>
   <si>
@@ -185,30 +173,6 @@
     <t>usuario_id (int)</t>
   </si>
   <si>
-    <t>pais_id (int)</t>
-  </si>
-  <si>
-    <t>tipo ????</t>
-  </si>
-  <si>
-    <t>fecha_expira (date)</t>
-  </si>
-  <si>
-    <t>numero_tarjeta (int)</t>
-  </si>
-  <si>
-    <t>entidad_bancaria varchar(255)</t>
-  </si>
-  <si>
-    <t>codigo_tarjeta (int)</t>
-  </si>
-  <si>
-    <t>franquicia nvarchar(255)</t>
-  </si>
-  <si>
-    <t>medio_pago nvarchar(255)</t>
-  </si>
-  <si>
     <t>codigo nvarchar(255)</t>
   </si>
   <si>
@@ -248,9 +212,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>envia_factura (bit)</t>
-  </si>
-  <si>
     <t>tipo_usuario (bit)</t>
   </si>
   <si>
@@ -273,6 +234,33 @@
   </si>
   <si>
     <t>moneda varchar2(20)</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>medios_pago_usuario</t>
+  </si>
+  <si>
+    <t>medio_pago_detalle nvarchar(255)</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>empresas_usuarios</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>empresa_id</t>
+  </si>
+  <si>
+    <t>comision_uber</t>
   </si>
 </sst>
 </file>
@@ -288,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,14 +304,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975F9BC-50D3-4FEC-81DF-0F6F53EEA337}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,380 +655,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+      <c r="I1" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
+      <c r="I11" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
